--- a/RAW/MT_Services.xlsx
+++ b/RAW/MT_Services.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="21">
   <si>
     <t>SERVICECODE</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>perapadalapmftc</t>
+  </si>
+  <si>
+    <t>TBLCHARGE</t>
   </si>
 </sst>
 </file>
@@ -124,7 +127,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -512,197 +515,186 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="1">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="1">
         <v>50000</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C3" s="1">
         <v>350</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="1">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="1">
         <v>52500</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C4" s="1">
         <v>450</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="1">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="1">
         <v>75000</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C5" s="1">
         <v>550</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="1">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="1">
         <v>87500</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C6" s="1">
         <v>650</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="1">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="1">
         <v>100000</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C7" s="1">
         <v>700</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="1">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="1">
         <v>112500</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C8" s="1">
         <v>800</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="1">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="1">
         <v>125000</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C9" s="1">
         <v>900</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="1">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="1">
         <v>137500</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C10" s="1">
         <v>1000</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="1">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="1">
         <v>150000</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C11" s="1">
         <v>1050</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="1">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="1">
         <v>152500</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C12" s="1">
         <v>1150</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="1">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="1">
         <v>175000</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C13" s="1">
         <v>1250</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="1">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="1">
         <v>137500</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C14" s="1">
         <v>1350</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="1">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="1">
         <v>200000</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C15" s="1">
         <v>1400</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="1">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="1">
         <v>212500</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C16" s="1">
         <v>1500</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="1">
-        <v>225000</v>
-      </c>
-      <c r="C16" s="1">
-        <v>1600</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -710,10 +702,10 @@
         <v>19</v>
       </c>
       <c r="B17" s="1">
-        <v>237500</v>
+        <v>225000</v>
       </c>
       <c r="C17" s="1">
-        <v>1700</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -721,10 +713,10 @@
         <v>19</v>
       </c>
       <c r="B18" s="1">
-        <v>250000</v>
+        <v>237500</v>
       </c>
       <c r="C18" s="1">
-        <v>1750</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -732,10 +724,10 @@
         <v>19</v>
       </c>
       <c r="B19" s="1">
-        <v>252500</v>
+        <v>250000</v>
       </c>
       <c r="C19" s="1">
-        <v>1850</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -743,10 +735,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>287500</v>
+        <v>252500</v>
       </c>
       <c r="C20" s="1">
-        <v>2050</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -754,10 +746,32 @@
         <v>19</v>
       </c>
       <c r="B21" s="1">
+        <v>287500</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="1">
         <v>300000</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C22" s="1">
         <v>2100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="1">
+        <v>9999999</v>
+      </c>
+      <c r="C23" s="1">
+        <v>9999999</v>
       </c>
     </row>
   </sheetData>

--- a/RAW/MT_Services.xlsx
+++ b/RAW/MT_Services.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="21">
   <si>
     <t>SERVICECODE</t>
   </si>
@@ -127,7 +127,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -515,10 +515,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -559,7 +559,7 @@
         <v>19</v>
       </c>
       <c r="B4" s="1">
-        <v>52500</v>
+        <v>62500</v>
       </c>
       <c r="C4" s="1">
         <v>450</v>
@@ -647,7 +647,7 @@
         <v>19</v>
       </c>
       <c r="B12" s="1">
-        <v>152500</v>
+        <v>162500</v>
       </c>
       <c r="C12" s="1">
         <v>1150</v>
@@ -669,7 +669,7 @@
         <v>19</v>
       </c>
       <c r="B14" s="1">
-        <v>137500</v>
+        <v>187500</v>
       </c>
       <c r="C14" s="1">
         <v>1350</v>
@@ -735,7 +735,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>252500</v>
+        <v>262500</v>
       </c>
       <c r="C20" s="1">
         <v>1850</v>
@@ -746,10 +746,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="1">
-        <v>287500</v>
+        <v>275000</v>
       </c>
       <c r="C21" s="1">
-        <v>2050</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -757,10 +757,10 @@
         <v>19</v>
       </c>
       <c r="B22" s="1">
-        <v>300000</v>
+        <v>287500</v>
       </c>
       <c r="C22" s="1">
-        <v>2100</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -768,10 +768,98 @@
         <v>19</v>
       </c>
       <c r="B23" s="1">
-        <v>9999999</v>
+        <v>300000</v>
       </c>
       <c r="C23" s="1">
-        <v>9999999</v>
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="1">
+        <v>325000</v>
+      </c>
+      <c r="C24" s="1">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="1">
+        <v>350000</v>
+      </c>
+      <c r="C25" s="1">
+        <v>2450</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="1">
+        <v>375000</v>
+      </c>
+      <c r="C26" s="1">
+        <v>2650</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" s="1">
+        <v>400000</v>
+      </c>
+      <c r="C27" s="1">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" s="1">
+        <v>425000</v>
+      </c>
+      <c r="C28" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" s="1">
+        <v>450000</v>
+      </c>
+      <c r="C29" s="1">
+        <v>3150</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" s="1">
+        <v>475000</v>
+      </c>
+      <c r="C30" s="1">
+        <v>3350</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" s="1">
+        <v>500000</v>
+      </c>
+      <c r="C31" s="1">
+        <v>3500</v>
       </c>
     </row>
   </sheetData>
